--- a/data/trunk.xlsx
+++ b/data/trunk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_io_trunk" sheetId="20" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,21 @@
   </si>
   <si>
     <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1          2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk -a add -s "ctrlid=1,masterport=2,slaveport=3 1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation failed as the specified port id is invalid</t>
+  </si>
+  <si>
+    <t>Invalid setting port id when adds trunk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,15 +982,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="73.5" customWidth="1"/>
     <col min="2" max="2" width="83.375" customWidth="1"/>
-    <col min="3" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
@@ -1006,7 +1023,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1075,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,150 +1152,150 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1288,19 +1305,27 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C21" s="1"/>
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C30" s="1"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="1"/>
@@ -1314,8 +1339,8 @@
     <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" s="1"/>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C37" s="1"/>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C35" s="1"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
@@ -1323,8 +1348,8 @@
     <row r="39" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C39" s="1"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D43" s="2"/>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C40" s="1"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D44" s="2"/>
@@ -1332,8 +1357,8 @@
     <row r="45" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D45" s="2"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D52" s="3"/>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D46" s="2"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D53" s="3"/>
@@ -1343,6 +1368,9 @@
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D56" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1463,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
